--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.4.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T13:48:16-05:00</t>
+    <t>2024-02-13T22:51:57-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,10 +255,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T22:51:57-06:00</t>
+    <t>2024-04-24T11:28:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.5</t>
+    <t>0.4.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T11:28:13-05:00</t>
+    <t>2024-05-22T11:48:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T20:42:33-05:00</t>
+    <t>2024-07-11T23:09:29-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
     <t>MITRE (https://open-health-manager.github.io/standard-patient-health-record-ig)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -116,9 +122,6 @@
   </si>
   <si>
     <t>Sleep duration</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -267,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,20 +370,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -402,58 +413,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -475,34 +486,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://open-health-manager.github.io/standard-patient-health-record-ig/ValueSet/pcd-sleep-observation-code</t>
+    <t>http://hl7.org/fhir/uv/sphr/ValueSet/pcd-sleep-observation-code</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.6</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,73 +55,82 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T23:09:29-05:00</t>
+    <t>2024-12-11T01:07:49-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MITRE</t>
+    <t>HL7 International / Patient Empowerment</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MITRE (https://open-health-manager.github.io/standard-patient-health-record-ig)</t>
+    <t>HL7 International / Patient Empowerment (http://www.hl7.org/Special/committees/patientempowerment)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This value set includes codes to track patient sleep recorded by device or app</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement.  The SNOMED International IPS Terminology is distributed by International Health Terminology Standards Development Organisation, trading as SNOMED International, and is subject the terms of the Creative Commons Attribution 4.0 International Public License. For more information, see SNOMED IPS Terminology.  The HL7 International IPS implementation guides incorporate SNOMED CT®, used by permission of the International Health Terminology Standards Development Organisation, trading as SNOMED International. SNOMED CT was originally created by the College of American Pathologists. SNOMED CT is a registered trademark of the International Health Terminology Standards Development Organisation, all rights reserved. Implementers of SNOMED CT should review usage terms or directly contact SNOMED International: info@snomed.org.  This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>93831-6</t>
+  </si>
+  <si>
+    <t>Deep sleep duration</t>
+  </si>
+  <si>
+    <t>93830-8</t>
+  </si>
+  <si>
+    <t>Light sleep duration</t>
+  </si>
+  <si>
+    <t>93829-0</t>
+  </si>
+  <si>
+    <t>REM sleep duration</t>
+  </si>
+  <si>
+    <t>93832-4</t>
+  </si>
+  <si>
+    <t>Sleep duration</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>This value set includes codes to track patient sleep recorded by device or app</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>93831-6</t>
-  </si>
-  <si>
-    <t>Deep sleep duration</t>
-  </si>
-  <si>
-    <t>93830-8</t>
-  </si>
-  <si>
-    <t>Light sleep duration</t>
-  </si>
-  <si>
-    <t>93829-0</t>
-  </si>
-  <si>
-    <t>REM sleep duration</t>
-  </si>
-  <si>
-    <t>93832-4</t>
-  </si>
-  <si>
-    <t>Sleep duration</t>
   </si>
   <si>
     <t>System URI</t>
@@ -332,66 +341,70 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -413,58 +426,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -486,34 +499,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/ValueSet/pcd-sleep-observation-code</t>
+    <t>http://hl7.org/fhir/uv/phr/ValueSet/pcd-sleep-observation-code</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T01:07:49-06:00</t>
+    <t>2024-12-13T21:36:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T21:36:12-06:00</t>
+    <t>2024-12-15T10:45:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T10:45:04-06:00</t>
+    <t>2024-12-15T12:17:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:17:17-06:00</t>
+    <t>2024-12-15T12:20:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:20:20-06:00</t>
+    <t>2024-12-15T20:08:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T20:08:17-06:00</t>
+    <t>2024-12-18T01:48:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T01:48:59-06:00</t>
+    <t>2024-12-18T11:20:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T11:20:50-06:00</t>
+    <t>2025-02-17T17:56:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T11:20:50-06:00</t>
+    <t>2025-03-04T22:49:02-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-04T22:49:02-06:00</t>
+    <t>2025-03-08T09:49:37-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-08T09:49:37-06:00</t>
+    <t>2025-03-11T13:10:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-pcd-sleep-observation-code.xlsx
+++ b/public/ValueSet-pcd-sleep-observation-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:10:34-05:00</t>
+    <t>2025-03-20T16:03:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
